--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2441045.605350258</v>
+        <v>2522989.390940892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7111222.58479036</v>
+        <v>5851605.615330305</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1743027.953170565</v>
+        <v>864456.6793124479</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6820379.641929643</v>
+        <v>7102151.3893776</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>390.1527797502169</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>390.1527797502169</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -671,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1527797502169</v>
+        <v>144.3706771979757</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5824148281844</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>72.85486890066045</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -795,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -804,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>108.6397487058784</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.8080941863653</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.8147335420944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>390.1527797502169</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>390.1527797502169</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -908,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>182.7013826960292</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.0639583929937</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1026,19 +1028,19 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>102.0059235515424</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1102,19 +1104,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>179.8652250628972</v>
       </c>
       <c r="W7" t="n">
-        <v>93.56768587789402</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1527797502169</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>390.1527797502169</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>322.1854592120456</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>390.1527797502169</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1148,7 +1150,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>123.455718198454</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -1227,7 +1229,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -1275,7 +1277,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>119.96637569036</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.95947387891897</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>53.03252708764614</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1339,16 +1341,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>16.95378936336924</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.7044377343796</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>48.69814668579081</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1615,16 @@
         <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019337</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
         <v>55.98930332975964</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>69.61551941933728</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
         <v>316.8402373905462</v>
@@ -1765,22 +1767,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>85.68364371037917</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.12680189458508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
         <v>207.654309906727</v>
@@ -1822,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>183.3297656819554</v>
       </c>
       <c r="Y16" t="n">
         <v>192.989399898785</v>
@@ -2002,19 +2004,19 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>35.28749552261673</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
         <v>118.61243891626</v>
@@ -2050,22 +2052,22 @@
         <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>55.1022816118827</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
         <v>192.989399898785</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>136.0789454373741</v>
@@ -2257,7 +2259,7 @@
         <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>238.3316067710337</v>
       </c>
       <c r="V22" t="n">
-        <v>70.8976148137498</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
         <v>246.7800261198764</v>
@@ -2305,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298449</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>226.7977272173426</v>
+        <v>155.1313674190456</v>
       </c>
       <c r="W25" t="n">
         <v>246.7800261198764</v>
@@ -2542,7 +2544,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535247</v>
       </c>
       <c r="D26" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815322</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019344</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975966</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862705</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2715,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875628</v>
       </c>
       <c r="D28" t="n">
-        <v>25.09738470585765</v>
+        <v>128.4007565039812</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>99.09943416991413</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529992</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198765</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>59.6430987064213</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
@@ -3016,7 +3018,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.7908236711589</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E32" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>102.9998778553974</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U34" t="n">
-        <v>214.2000763109239</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C35" t="n">
         <v>376.5244030535246</v>
@@ -3284,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>208.9659652975191</v>
       </c>
       <c r="W37" t="n">
-        <v>63.84818940053971</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E38" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263987</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>80.59349978382107</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>100.8383219502122</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>383.4149366839596</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3794,19 +3796,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>136.1769805884548</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>285.348157590779</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -4028,7 +4030,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4037,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>224.1713569526553</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672379</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1240.783192586858</v>
+        <v>611.0531456036218</v>
       </c>
       <c r="C2" t="n">
-        <v>846.689475667447</v>
+        <v>604.968958957296</v>
       </c>
       <c r="D2" t="n">
-        <v>452.595758748036</v>
+        <v>604.5454330907605</v>
       </c>
       <c r="E2" t="n">
-        <v>442.2959473053368</v>
+        <v>594.2456216480613</v>
       </c>
       <c r="F2" t="n">
-        <v>425.3059392994284</v>
+        <v>577.2556136421529</v>
       </c>
       <c r="G2" t="n">
-        <v>31.21222238001735</v>
+        <v>431.4266467755108</v>
       </c>
       <c r="H2" t="n">
-        <v>31.21222238001735</v>
+        <v>120.5181494032288</v>
       </c>
       <c r="I2" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>288.3518581880563</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>288.3518581880563</v>
       </c>
       <c r="L2" t="n">
-        <v>31.21222238001735</v>
+        <v>541.5402578923326</v>
       </c>
       <c r="M2" t="n">
-        <v>417.4634743327321</v>
+        <v>964.3492935560695</v>
       </c>
       <c r="N2" t="n">
-        <v>788.1086150954382</v>
+        <v>964.3492935560695</v>
       </c>
       <c r="O2" t="n">
-        <v>1174.359867048153</v>
+        <v>1387.158329219806</v>
       </c>
       <c r="P2" t="n">
-        <v>1560.611119000868</v>
+        <v>1387.158329219806</v>
       </c>
       <c r="Q2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="S2" t="n">
-        <v>1425.330043794968</v>
+        <v>1573.038260809199</v>
       </c>
       <c r="T2" t="n">
-        <v>1425.330043794968</v>
+        <v>1350.831776756058</v>
       </c>
       <c r="U2" t="n">
-        <v>1246.963968210944</v>
+        <v>1350.831776756058</v>
       </c>
       <c r="V2" t="n">
-        <v>1246.963968210944</v>
+        <v>1000.994222092539</v>
       </c>
       <c r="W2" t="n">
-        <v>1246.963968210944</v>
+        <v>617.2339212277072</v>
       </c>
       <c r="X2" t="n">
-        <v>1246.963968210944</v>
+        <v>617.2339212277072</v>
       </c>
       <c r="Y2" t="n">
-        <v>1246.963968210944</v>
+        <v>617.2339212277072</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.2458075581799</v>
+        <v>604.037348789341</v>
       </c>
       <c r="C3" t="n">
-        <v>441.2458075581799</v>
+        <v>470.0422775382866</v>
       </c>
       <c r="D3" t="n">
-        <v>367.6550308908461</v>
+        <v>353.145119757679</v>
       </c>
       <c r="E3" t="n">
-        <v>247.1622148831741</v>
+        <v>232.652303750007</v>
       </c>
       <c r="F3" t="n">
-        <v>138.2023350656787</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>31.21222238001735</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>54.91497810006179</v>
       </c>
       <c r="I3" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J3" t="n">
-        <v>224.0250799426506</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="K3" t="n">
-        <v>610.2763318953653</v>
+        <v>456.9754223840388</v>
       </c>
       <c r="L3" t="n">
-        <v>610.2763318953653</v>
+        <v>456.9754223840388</v>
       </c>
       <c r="M3" t="n">
-        <v>996.52758384808</v>
+        <v>483.2972806410114</v>
       </c>
       <c r="N3" t="n">
-        <v>1382.778835800795</v>
+        <v>906.1063163047482</v>
       </c>
       <c r="O3" t="n">
-        <v>1560.611119000868</v>
+        <v>1328.915351968485</v>
       </c>
       <c r="P3" t="n">
-        <v>1560.611119000868</v>
+        <v>1328.915351968485</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1678.759816652468</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1600.329326129407</v>
       </c>
       <c r="T3" t="n">
-        <v>1401.269255187876</v>
+        <v>1440.987462316415</v>
       </c>
       <c r="U3" t="n">
-        <v>1203.918444326094</v>
+        <v>1243.636651454634</v>
       </c>
       <c r="V3" t="n">
-        <v>990.2069173191283</v>
+        <v>1243.636651454634</v>
       </c>
       <c r="W3" t="n">
-        <v>776.973749055457</v>
+        <v>1030.403483190963</v>
       </c>
       <c r="X3" t="n">
-        <v>600.6477671943499</v>
+        <v>854.0775013298553</v>
       </c>
       <c r="Y3" t="n">
-        <v>441.2458075581799</v>
+        <v>744.3403814249276</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5647133261073</v>
+        <v>583.0590809082253</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5647133261073</v>
+        <v>583.0590809082253</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0700686490173</v>
+        <v>583.0590809082253</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0700686490173</v>
+        <v>422.1482657765447</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0700686490173</v>
+        <v>300.1198878105192</v>
       </c>
       <c r="G4" t="n">
-        <v>180.8196775745607</v>
+        <v>300.1198878105192</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522802</v>
+        <v>48.24893612551249</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074661</v>
+        <v>202.8012638477505</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>751.9624205683043</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.84703862227</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1289.407648948744</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198357</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000868</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1475.338400676267</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1475.338400676267</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="U4" t="n">
-        <v>1192.540253222391</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.540253222391</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="W4" t="n">
-        <v>920.0001183313869</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="X4" t="n">
-        <v>920.0001183313869</v>
+        <v>770.7587873022696</v>
       </c>
       <c r="Y4" t="n">
-        <v>695.2644197201516</v>
+        <v>770.7587873022696</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1031.236326875557</v>
+        <v>570.6426643811657</v>
       </c>
       <c r="C5" t="n">
-        <v>637.1426099561463</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D5" t="n">
-        <v>243.0488930367353</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>232.7490815940361</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>215.7590735881277</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>671.6489458004863</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1057.900197753201</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1444.151449705916</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1444.151449705916</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>1444.151449705916</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1425.330043794968</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1425.330043794968</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1425.330043794968</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1425.330043794968</v>
+        <v>1361.520413921992</v>
       </c>
       <c r="W5" t="n">
-        <v>1425.330043794968</v>
+        <v>977.760113057161</v>
       </c>
       <c r="X5" t="n">
-        <v>1425.330043794968</v>
+        <v>977.760113057161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1425.330043794968</v>
+        <v>576.8234400052511</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.2958513022677</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>505.3007800512135</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>388.4036222706059</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>267.9108062629339</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>158.9509264454385</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>51.96081375977718</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>31.21222238001735</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4634743327321</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N6" t="n">
-        <v>803.7147262854468</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.965978238161</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1349.584822699477</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1152.234011837696</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1152.234011837696</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>939.0008435740243</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>939.0008435740243</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>779.5988839378543</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.0472404340999</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="C7" t="n">
-        <v>629.0472404340999</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D7" t="n">
-        <v>629.0472404340999</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1475.338400676267</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1235.789661652969</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U7" t="n">
-        <v>1235.789661652969</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V7" t="n">
-        <v>961.9039165924912</v>
+        <v>835.0193028338081</v>
       </c>
       <c r="W7" t="n">
-        <v>867.3911025744164</v>
+        <v>555.9496383426824</v>
       </c>
       <c r="X7" t="n">
-        <v>629.0472404340999</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.0472404340999</v>
+        <v>317.6057762023659</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.517402081457</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C8" t="n">
-        <v>772.4236851620456</v>
+        <v>789.115212424195</v>
       </c>
       <c r="D8" t="n">
-        <v>446.9838273721005</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E8" t="n">
-        <v>52.89011045268948</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F8" t="n">
-        <v>35.9001024467811</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>31.21222238001735</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L8" t="n">
-        <v>401.8573631427234</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M8" t="n">
-        <v>788.1086150954382</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>1174.359867048153</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1560.611119000868</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>1606.063976566058</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.611119000868</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.611119000868</v>
+        <v>1205.42057873501</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>388.4036222706059</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>388.4036222706059</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>388.4036222706059</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>267.9108062629339</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>158.9509264454385</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>51.96081375977718</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L9" t="n">
-        <v>438.2641504114549</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>438.2641504114549</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>438.2641504114549</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O9" t="n">
-        <v>824.5154023641696</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>547.8055819067758</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>388.4036222706059</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.4203021146554</v>
+        <v>704.4716728002624</v>
       </c>
       <c r="C10" t="n">
-        <v>625.3269296763719</v>
+        <v>704.4716728002624</v>
       </c>
       <c r="D10" t="n">
-        <v>625.3269296763719</v>
+        <v>704.4716728002624</v>
       </c>
       <c r="E10" t="n">
-        <v>464.4161145446914</v>
+        <v>543.5608576685818</v>
       </c>
       <c r="F10" t="n">
-        <v>464.4161145446914</v>
+        <v>378.929731779173</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702348</v>
+        <v>211.6793407047165</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756915</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001761</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522814</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074661</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875267</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280199</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1049.39789353288</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V10" t="n">
-        <v>1049.39789353288</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W10" t="n">
-        <v>1049.39789353288</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.39789353288</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.6621949216443</v>
+        <v>704.4716728002624</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.651911296964</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1242.324231444919</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1242.324231444919</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>857.7809267965008</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>466.5474255848731</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G11" t="n">
-        <v>87.61605231239008</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
-        <v>70.49101255141105</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>70.49101255141105</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>70.49101255141105</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>460.545813119067</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1236.864404110821</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1990.045420749439</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.676277166544</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3162.832975085696</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3483.993981880988</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3524.550627570552</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3419.066463199338</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>3419.066463199338</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.066463199338</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
-        <v>3099.025819370504</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W11" t="n">
-        <v>2745.062429340357</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>2374.215942343994</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2003.076180126769</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>749.3218544379454</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>615.3267831868911</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>498.4296254062835</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>377.9368093986116</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>268.9769295811161</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>161.9868168954548</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>91.23960393117088</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>263.3038701140443</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>263.3038701140443</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>924.3920420333325</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>924.3920420333325</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="N12" t="n">
-        <v>1413.023117856017</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O12" t="n">
-        <v>2116.980208401911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2116.980208401911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2116.980208401911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2008.99019851622</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1849.648334703228</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1652.297523841447</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1438.585996834481</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1225.352828570809</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1049.026846709702</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>889.624887073532</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.7550371510414</v>
+        <v>572.0137430120645</v>
       </c>
       <c r="C13" t="n">
-        <v>327.7550371510414</v>
+        <v>430.7172814084659</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7550371510414</v>
+        <v>430.7172814084659</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7550371510414</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F13" t="n">
-        <v>327.7550371510414</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G13" t="n">
-        <v>190.3015569112696</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>70.49101255141105</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>113.7775142656961</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>297.5337942970087</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>586.6348468861438</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>905.1028556357116</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N13" t="n">
-        <v>1215.145590339037</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1503.910152974585</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
-        <v>1738.789545533272</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>1833.521527644858</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1833.521527644858</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.355428923262</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1477.603600734649</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.602364115458</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V13" t="n">
-        <v>980.5135298896646</v>
+        <v>1187.736243533497</v>
       </c>
       <c r="W13" t="n">
-        <v>731.2407762332238</v>
+        <v>938.4634898770558</v>
       </c>
       <c r="X13" t="n">
-        <v>522.6938249275919</v>
+        <v>729.9165385714241</v>
       </c>
       <c r="Y13" t="n">
-        <v>327.7550371510414</v>
+        <v>729.9165385714241</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1657.817369183999</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1277.489689331954</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>902.8226702596994</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>518.2793656112808</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>127.0458643996531</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G14" t="n">
-        <v>127.0458643996531</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
-        <v>127.0458643996531</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>70.49101255141105</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>70.49101255141105</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>460.545813119067</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1236.864404110821</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1990.045420749439</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2633.676277166544</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3162.832975085696</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3483.993981880988</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3524.550627570552</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3524.550627570552</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>3524.550627570552</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>3454.231921086373</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>3134.191277257539</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.227887227392</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>2409.381400231029</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2038.241638013804</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>749.3218544379454</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>615.3267831868911</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>498.4296254062835</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>377.9368093986116</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>268.9769295811161</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>161.9868168954548</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>91.23960393117088</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>913.4680932459777</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>913.4680932459777</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>1617.425183791872</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1767.135743717928</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2008.99019851622</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1849.648334703228</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1652.297523841447</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1438.585996834481</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1225.352828570809</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1049.026846709702</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>889.624887073532</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.9500254061554</v>
+        <v>458.5427745949823</v>
       </c>
       <c r="C16" t="n">
-        <v>809.9500254061554</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="D16" t="n">
-        <v>680.2522915637502</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="E16" t="n">
-        <v>549.1383872667544</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="F16" t="n">
-        <v>414.3041722120305</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="G16" t="n">
-        <v>276.8506919722587</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0401476124001</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I16" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>113.7775142656961</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>297.5337942970087</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>586.6348468861438</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>905.1028556357116</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
-        <v>1215.145590339037</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1503.910152974585</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
-        <v>1738.789545533272</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.521527644858</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1830.363141892752</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1830.363141892752</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1620.611313704138</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U16" t="n">
-        <v>1620.611313704138</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="V16" t="n">
-        <v>1620.611313704138</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W16" t="n">
-        <v>1371.338560047697</v>
+        <v>996.5659394278172</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.791608742066</v>
+        <v>811.3843579308925</v>
       </c>
       <c r="Y16" t="n">
-        <v>967.8528209655151</v>
+        <v>616.445570154342</v>
       </c>
     </row>
     <row r="17">
@@ -5595,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1392.027034650488</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N18" t="n">
-        <v>1392.027034650488</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>335.2473119828005</v>
+        <v>973.9991721489658</v>
       </c>
       <c r="C19" t="n">
-        <v>335.2473119828005</v>
+        <v>832.7027105453672</v>
       </c>
       <c r="D19" t="n">
-        <v>335.2473119828005</v>
+        <v>703.0049767029619</v>
       </c>
       <c r="E19" t="n">
-        <v>335.2473119828005</v>
+        <v>571.8910724059662</v>
       </c>
       <c r="F19" t="n">
-        <v>335.2473119828005</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="G19" t="n">
         <v>299.6033771114704</v>
@@ -5698,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1535.387706790508</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751514</v>
+        <v>1535.387706790508</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187106</v>
+        <v>1535.387706790508</v>
       </c>
       <c r="X19" t="n">
-        <v>688.0888953187106</v>
+        <v>1326.840755484876</v>
       </c>
       <c r="Y19" t="n">
-        <v>493.1501075421601</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G20" t="n">
         <v>430.9101360764621</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5765,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5831,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>973.9991721489658</v>
+        <v>491.8041838938519</v>
       </c>
       <c r="C22" t="n">
-        <v>832.7027105453672</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="D22" t="n">
-        <v>703.0049767029619</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="E22" t="n">
-        <v>571.8910724059662</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="F22" t="n">
-        <v>437.0568573512422</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114704</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.27421278407</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1856.27421278407</v>
+        <v>1193.712723081718</v>
       </c>
       <c r="V22" t="n">
-        <v>1784.660460446948</v>
+        <v>949.6238888559246</v>
       </c>
       <c r="W22" t="n">
-        <v>1535.387706790508</v>
+        <v>700.3511351994838</v>
       </c>
       <c r="X22" t="n">
-        <v>1326.840755484876</v>
+        <v>491.8041838938519</v>
       </c>
       <c r="Y22" t="n">
-        <v>1131.901967708325</v>
+        <v>491.8041838938519</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5974,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5987,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6002,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6026,13 +6028,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>286.056555253256</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.714647364874</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
-        <v>1863.671737910768</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>299.6033771114704</v>
+        <v>371.9936395339932</v>
       </c>
       <c r="C25" t="n">
-        <v>299.6033771114704</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D25" t="n">
-        <v>299.6033771114704</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E25" t="n">
-        <v>299.6033771114704</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F25" t="n">
-        <v>299.6033771114704</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6148,13 +6150,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
         <v>1237.898275478248</v>
@@ -6181,16 +6183,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>952.3618698500936</v>
+        <v>1024.752132272616</v>
       </c>
       <c r="W25" t="n">
-        <v>703.0891161936528</v>
+        <v>775.4793786161755</v>
       </c>
       <c r="X25" t="n">
-        <v>494.5421648880209</v>
+        <v>566.9324273105437</v>
       </c>
       <c r="Y25" t="n">
-        <v>299.6033771114704</v>
+        <v>371.9936395339932</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6254,22 +6256,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>379.7015972963604</v>
+        <v>887.4500370879769</v>
       </c>
       <c r="C28" t="n">
-        <v>238.4051356927618</v>
+        <v>746.1535754843782</v>
       </c>
       <c r="D28" t="n">
-        <v>213.0542420504813</v>
+        <v>616.4558416419729</v>
       </c>
       <c r="E28" t="n">
-        <v>213.0542420504813</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="F28" t="n">
-        <v>213.0542420504813</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G28" t="n">
-        <v>213.0542420504813</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6382,16 +6384,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
         <v>1237.898275478248</v>
@@ -6403,31 +6405,31 @@
         <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1756.1737742286</v>
       </c>
       <c r="U28" t="n">
-        <v>1434.451719820136</v>
+        <v>1503.172537609409</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.362885594343</v>
+        <v>1503.172537609409</v>
       </c>
       <c r="W28" t="n">
-        <v>941.0901319379022</v>
+        <v>1253.899783952968</v>
       </c>
       <c r="X28" t="n">
-        <v>732.5431806322705</v>
+        <v>1045.352832647337</v>
       </c>
       <c r="Y28" t="n">
-        <v>537.60439285572</v>
+        <v>1045.352832647337</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180322</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>393.5382013723083</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.515282066875</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>2110.173374178493</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2110.173374178493</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>767.6394927281179</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="C31" t="n">
-        <v>626.3430311245193</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="D31" t="n">
-        <v>496.6452972821141</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="E31" t="n">
-        <v>365.5313929851185</v>
+        <v>153.4892519395332</v>
       </c>
       <c r="F31" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1800.798405294154</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1547.797168674963</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1547.797168674963</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.524415018522</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X31" t="n">
-        <v>1089.977463712891</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y31" t="n">
-        <v>925.5422882874775</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208991</v>
@@ -6728,10 +6730,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
         <v>3816.98692220683</v>
@@ -6783,10 +6785,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N33" t="n">
         <v>1435.775802995229</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.9991721489654</v>
+        <v>585.6619072492665</v>
       </c>
       <c r="C34" t="n">
-        <v>832.7027105453667</v>
+        <v>585.6619072492665</v>
       </c>
       <c r="D34" t="n">
-        <v>703.0049767029616</v>
+        <v>585.6619072492665</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059659</v>
+        <v>454.5480029522707</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6859,13 +6861,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N34" t="n">
         <v>1237.898275478248</v>
@@ -6880,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.088006374759</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V34" t="n">
-        <v>973.9991721489654</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W34" t="n">
-        <v>973.9991721489654</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X34" t="n">
-        <v>973.9991721489654</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="Y34" t="n">
-        <v>973.9991721489654</v>
+        <v>743.5647028086261</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6922,10 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
         <v>430.910136076462</v>
@@ -7020,22 +7022,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>286.056555253256</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>1129.033635947823</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N36" t="n">
-        <v>1129.033635947823</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>767.6394927281179</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C37" t="n">
-        <v>626.3430311245193</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D37" t="n">
-        <v>496.6452972821141</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E37" t="n">
-        <v>365.5313929851185</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T37" t="n">
-        <v>1646.522384595457</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U37" t="n">
-        <v>1393.521147976266</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="V37" t="n">
-        <v>1393.521147976266</v>
+        <v>1589.721672670398</v>
       </c>
       <c r="W37" t="n">
-        <v>1329.02802736966</v>
+        <v>1340.448919013957</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.481076064028</v>
+        <v>1131.901967708325</v>
       </c>
       <c r="Y37" t="n">
-        <v>925.5422882874775</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7156,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7211,7 +7213,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
         <v>3092.177045180321</v>
@@ -7251,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N39" t="n">
-        <v>2083.796217986828</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O39" t="n">
-        <v>2083.796217986828</v>
+        <v>1863.671737910768</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>776.6568058448082</v>
+        <v>832.7027105453672</v>
       </c>
       <c r="C40" t="n">
-        <v>695.249230305595</v>
+        <v>832.7027105453672</v>
       </c>
       <c r="D40" t="n">
-        <v>565.5514964631899</v>
+        <v>703.0049767029619</v>
       </c>
       <c r="E40" t="n">
-        <v>434.4375921661942</v>
+        <v>571.8910724059662</v>
       </c>
       <c r="F40" t="n">
-        <v>299.6033771114703</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7333,13 +7335,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478248</v>
@@ -7366,16 +7368,16 @@
         <v>1338.04534048635</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.18844962755</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.18844962755</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.498389180718</v>
+        <v>1027.641498321918</v>
       </c>
       <c r="Y40" t="n">
-        <v>934.5596014041678</v>
+        <v>832.7027105453672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2099.137999075486</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2099.137999075486</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.850184243203</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1297.5099687601</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>876.4795567137877</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>467.7512726066199</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>156.8427752343379</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>70.49101255141105</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>70.49101255141105</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>783.082412363649</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1559.401003355403</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2312.582019994021</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2956.212876411126</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3203.38962077526</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3524.550627570552</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3524.550627570552</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3389.269552364653</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3167.063068311512</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2910.002576571022</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V41" t="n">
-        <v>2910.002576571022</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>2910.002576571022</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2509.359178739975</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2509.359178739975</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>749.3218544379454</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>615.3267831868911</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>498.4296254062835</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>377.9368093986116</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>268.9769295811161</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>161.9868168954548</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>91.23960393117088</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>913.4680932459777</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="N42" t="n">
-        <v>1413.023117856017</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O42" t="n">
-        <v>2116.980208401911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>2116.980208401911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2116.980208401911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2008.99019851622</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1849.648334703228</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1652.297523841447</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1438.585996834481</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1225.352828570809</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1049.026846709702</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>889.624887073532</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1159.824862852548</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="C43" t="n">
-        <v>988.731490414264</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D43" t="n">
-        <v>829.236845737174</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E43" t="n">
-        <v>668.3260306054935</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>503.6949047160848</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>336.4445136416282</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>186.8370584470849</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>84.57356195662157</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>239.1258896788596</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>499.0229899589201</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>788.2870463994134</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1069.125828793664</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1328.686439120138</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1534.36187936975</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1599.889909172261</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1599.889909172261</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1599.889909172261</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1599.889909172261</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1599.889909172261</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>1599.889909172261</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="W43" t="n">
-        <v>1599.889909172261</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="X43" t="n">
-        <v>1572.260267857827</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="Y43" t="n">
-        <v>1347.524569246592</v>
+        <v>691.0787157447054</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1570.570255413197</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1160.445664726467</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>755.9817348195279</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>755.9817348195279</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>467.7512726066199</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>467.7512726066199</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>156.8427752343379</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>324.6764840191653</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6764840191653</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>460.545813119067</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1236.864404110821</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1990.045420749439</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2633.676277166544</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3162.832975085696</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3483.993981880988</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3524.550627570552</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3389.269552364653</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3389.269552364653</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3132.209060624164</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2782.371505960644</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2782.371505960644</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2381.728108129597</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y44" t="n">
-        <v>1980.791435077687</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>749.3218544379454</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>615.3267831868911</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>498.4296254062835</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>377.9368093986116</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>268.9769295811161</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>161.9868168954548</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>91.23960393117088</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>70.49101255141105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>263.3038701140443</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>263.3038701140443</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L45" t="n">
-        <v>263.3038701140443</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M45" t="n">
-        <v>1106.280950808611</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N45" t="n">
-        <v>1106.280950808611</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O45" t="n">
-        <v>1810.238041354505</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2116.980208401911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2008.99019851622</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1849.648334703228</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1652.297523841447</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1438.585996834481</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1225.352828570809</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1049.026846709702</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>889.624887073532</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1995.151730949703</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="C46" t="n">
-        <v>1995.151730949703</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D46" t="n">
-        <v>1995.151730949703</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E46" t="n">
-        <v>1995.151730949703</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F46" t="n">
-        <v>1995.151730949703</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
-        <v>1995.151730949703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>1995.151730949703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>1995.151730949703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>2009.234280354913</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>2163.786608077151</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>2423.683708357212</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>2712.947764797705</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>2993.786547191955</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>3253.347157518429</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>3459.022597768042</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>3524.550627570552</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>3524.550627570552</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>3524.550627570552</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>3285.001888547255</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>3002.203741093379</v>
+        <v>970.266373074494</v>
       </c>
       <c r="V46" t="n">
-        <v>2728.3179960329</v>
+        <v>970.266373074494</v>
       </c>
       <c r="W46" t="n">
-        <v>2449.248331541775</v>
+        <v>970.266373074494</v>
       </c>
       <c r="X46" t="n">
-        <v>2210.904469401458</v>
+        <v>970.266373074494</v>
       </c>
       <c r="Y46" t="n">
-        <v>1995.151730949703</v>
+        <v>745.5306744632587</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>351.2312563499927</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>520.37005846082</v>
       </c>
       <c r="N2" t="n">
-        <v>467.3013218300598</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>520.2696096295577</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>445.9785625348323</v>
+        <v>482.90561678839</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>84.15201935152109</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439669</v>
+        <v>480.2732273975246</v>
       </c>
       <c r="O3" t="n">
-        <v>237.3800478889625</v>
+        <v>484.8313130037746</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>170.3190840944062</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>531.0094776201754</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>398.7905657099514</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L8" t="n">
-        <v>469.8744291362853</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8532,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5176252944898</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>489.4801461109822</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>501.3162977084759</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7601366489866</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>489.4801461109822</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -9015,16 +9017,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
-        <v>205.4824228069005</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9243,19 +9245,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>148.6536994294856</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>245.6302329415199</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9264,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>551.1310269936541</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9659,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9723,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
-        <v>303.2511867883843</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>359.4423053075011</v>
+        <v>243.9932777523689</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10592,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>511.28013062098</v>
+        <v>665.1482007347663</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10686,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10914,10 +10916,10 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>110.7613274818897</v>
+        <v>333.1092871546772</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>343.3228424365758</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11147,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>501.3162977084759</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11160,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11299,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>232.7271446284021</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11312,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11385,13 +11387,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P45" t="n">
-        <v>364.1002077779613</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815321</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>261.346681308852</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975964</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967471</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
-        <v>10.32447097817135</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.9497991977444</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>155.3754256774098</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.79424752043133</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>23.13171611062012</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.7914499147574</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>195.3689426411165</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>12.13961748196547</v>
       </c>
       <c r="V22" t="n">
-        <v>170.7503310697855</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>14.85021866619275</v>
+        <v>86.5165784644897</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>103.3033717981234</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103792</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501644</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>108.5548757368129</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835354</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.84277419775536</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.19857622762603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30.48599504877934</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>36.27114794207517</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="35">
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>32.68198058601615</v>
       </c>
       <c r="W37" t="n">
-        <v>182.9318367193367</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>59.28999720374159</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>140.8096239333232</v>
       </c>
       <c r="W40" t="n">
         <v>246.7800261198764</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.0043539239104</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>134.9699070214185</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>131.4719503350703</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26026,16 +26028,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26071,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>55.79880902668182</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.89313055788503</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>593958.5427837815</v>
+        <v>597080.2589702348</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>593958.5427837815</v>
+        <v>605109.9345904007</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>593958.5427837815</v>
+        <v>605109.9345904007</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535824.5642441503</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>535824.5642441502</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623993.8663530729</v>
+        <v>623993.8663530728</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623993.8663530729</v>
+        <v>623993.8663530728</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623993.8663530729</v>
+        <v>623993.8663530728</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623993.8663530728</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623993.8663530729</v>
+        <v>623993.8663530728</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492841.7199724173</v>
+        <v>581011.0220813398</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492841.7199724173</v>
+        <v>581011.0220813396</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>602664.8542200907</v>
+      </c>
+      <c r="C2" t="n">
         <v>602664.8542200906</v>
       </c>
-      <c r="C2" t="n">
-        <v>602664.8542200907</v>
-      </c>
       <c r="D2" t="n">
-        <v>602664.8542200903</v>
+        <v>602664.8542200906</v>
       </c>
       <c r="E2" t="n">
-        <v>502775.0781096871</v>
+        <v>584042.9209415643</v>
       </c>
       <c r="F2" t="n">
-        <v>502775.0781096869</v>
+        <v>584042.9209415637</v>
       </c>
       <c r="G2" t="n">
+        <v>584042.9209415637</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="J2" t="n">
+        <v>584042.9209415637</v>
+      </c>
+      <c r="K2" t="n">
+        <v>584042.9209415643</v>
+      </c>
+      <c r="L2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="M2" t="n">
         <v>584042.9209415639</v>
-      </c>
-      <c r="H2" t="n">
-        <v>584042.9209415639</v>
-      </c>
-      <c r="I2" t="n">
-        <v>584042.9209415639</v>
-      </c>
-      <c r="J2" t="n">
-        <v>584042.9209415639</v>
-      </c>
-      <c r="K2" t="n">
-        <v>584042.920941564</v>
-      </c>
-      <c r="L2" t="n">
-        <v>584042.9209415641</v>
-      </c>
-      <c r="M2" t="n">
-        <v>584042.9209415638</v>
       </c>
       <c r="N2" t="n">
         <v>584042.920941564</v>
       </c>
       <c r="O2" t="n">
-        <v>454582.1921080477</v>
+        <v>535850.0349399234</v>
       </c>
       <c r="P2" t="n">
-        <v>454582.1921080477</v>
+        <v>535850.0349399236</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130749.1700082319</v>
+        <v>143124.2752108469</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668785</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>170196.4360285002</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>77952.12132976064</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125680.2872860362</v>
+        <v>135342.029469154</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24445.77426110928</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>122355.3953233999</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247116.2155060053</v>
+        <v>240285.7433202983</v>
       </c>
       <c r="C4" t="n">
-        <v>247116.2155060053</v>
+        <v>222716.4087914901</v>
       </c>
       <c r="D4" t="n">
-        <v>247116.2155060053</v>
+        <v>222716.4087914901</v>
       </c>
       <c r="E4" t="n">
-        <v>117817.2445054011</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="F4" t="n">
-        <v>117817.2445054011</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="G4" t="n">
         <v>133638.8779954488</v>
@@ -26439,7 +26441,7 @@
         <v>133638.8779954489</v>
       </c>
       <c r="J4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="K4" t="n">
         <v>133638.8779954489</v>
@@ -26454,10 +26456,10 @@
         <v>133638.8779954489</v>
       </c>
       <c r="O4" t="n">
-        <v>88007.21508853228</v>
+        <v>103828.84857858</v>
       </c>
       <c r="P4" t="n">
-        <v>88007.21508853228</v>
+        <v>103828.84857858</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881319</v>
+        <v>59594.05390742949</v>
       </c>
       <c r="C5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>56053.1160710639</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>56053.1160710639</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26506,10 +26508,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>53573.1695390724</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>53573.1695390724</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167450.5796970401</v>
+        <v>159660.781781516</v>
       </c>
       <c r="C6" t="n">
-        <v>298199.7497052722</v>
+        <v>283892.9194834151</v>
       </c>
       <c r="D6" t="n">
-        <v>298199.7497052719</v>
+        <v>314579.3803501029</v>
       </c>
       <c r="E6" t="n">
-        <v>158708.2815047219</v>
+        <v>161329.9698887368</v>
       </c>
       <c r="F6" t="n">
-        <v>328904.7175332219</v>
+        <v>377058.8861692501</v>
       </c>
       <c r="G6" t="n">
-        <v>299106.7648394896</v>
+        <v>377058.88616925</v>
       </c>
       <c r="H6" t="n">
-        <v>377058.8861692502</v>
+        <v>377058.8861692505</v>
       </c>
       <c r="I6" t="n">
-        <v>377058.8861692502</v>
+        <v>377058.8861692504</v>
       </c>
       <c r="J6" t="n">
-        <v>251378.598883214</v>
+        <v>241716.856700096</v>
       </c>
       <c r="K6" t="n">
-        <v>377058.8861692503</v>
+        <v>352613.1119081412</v>
       </c>
       <c r="L6" t="n">
         <v>377058.8861692504</v>
       </c>
       <c r="M6" t="n">
-        <v>254703.4908458501</v>
+        <v>216700.4356685674</v>
       </c>
       <c r="N6" t="n">
-        <v>377058.8861692503</v>
+        <v>377058.8861692504</v>
       </c>
       <c r="O6" t="n">
-        <v>313001.8074804431</v>
+        <v>361155.9761164702</v>
       </c>
       <c r="P6" t="n">
-        <v>313001.8074804431</v>
+        <v>361155.9761164703</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
         <v>29.49894172633794</v>
@@ -26704,22 +26706,22 @@
         <v>29.49894172633794</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="K2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="C4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>881.1376568926381</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>881.1376568926381</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>881.1376568926381</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>881.1376568926381</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26916,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>29.49894172633803</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>29.49894172633794</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625098</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>490.9848771424212</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>284.4085642401468</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.152779750217</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625098</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>490.9848771424212</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>29.49894172633803</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>29.49894172633794</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>29.49894172633799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625098</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>490.9848771424212</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>284.4085642401468</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>15.87056502964566</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>10.26651085765315</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48822151587922</v>
+        <v>260.2703240681204</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>77.90747199490059</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.87331730214103</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>49.16819133392987</v>
       </c>
     </row>
     <row r="4">
@@ -27540,22 +27542,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>42.17672044414934</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27597,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>6.464234304119998</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>15.87056502964566</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>10.26651085765315</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>221.9396185700669</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>235.2752207238904</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,19 +27748,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>55.74252162331952</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,19 +27779,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>91.28166254697607</v>
       </c>
       <c r="W7" t="n">
-        <v>182.7112819683203</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>78.23383139582444</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>20.04403357805535</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27913,10 +27915,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>256.4669796577291</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27947,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27995,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>54.59634635213614</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.863235451185</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>95.07885355495176</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="14">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633816</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.4989417263379</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633833</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="41">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>255.7458582871479</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="N2" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>390.1527797502169</v>
+        <v>26.58773561310367</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="O3" t="n">
-        <v>179.6285688889625</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>474.8949538093263</v>
       </c>
       <c r="M6" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>344.5309307071477</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L8" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L9" t="n">
-        <v>216.4031014836407</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>393.9947480481374</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>443.7520139700585</v>
       </c>
       <c r="N12" t="n">
-        <v>493.5667432552367</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>393.9947480481374</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35735,16 +35737,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
-        <v>151.2227878040968</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.87875394152</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>493.5667432552367</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
-        <v>248.9915517855806</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533843</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.6124040720328</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M28" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983078</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978319</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>303.3277814966521</v>
+        <v>187.8787539415198</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M34" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>453.52865162098</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>56.50169247908597</v>
+        <v>278.8496521518734</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M40" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>249.6734791556916</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>443.7520139700585</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>137.2417465655573</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38032,7 +38034,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38105,13 +38107,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P45" t="n">
-        <v>309.8405727751575</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2522989.390940892</v>
+        <v>2522262.792069668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330298</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124479</v>
+        <v>864456.6793124487</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7102151.3893776</v>
+        <v>7102151.389377601</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>347.5964505744122</v>
       </c>
       <c r="G2" t="n">
-        <v>144.3706771979757</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>60.75017879743415</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -797,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>108.6397487058784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>120.8080941863653</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>220.2647746254032</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>189.9016984607667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>111.0639583929937</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.8652250628972</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
@@ -1144,13 +1144,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>405.0606158679216</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>123.455718198454</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>53.03252708764614</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
         <v>224.990945096747</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -1587,16 +1587,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>48.69814668579081</v>
+        <v>196.4386585029221</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019337</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.1885574966858</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1830,10 +1830,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>183.3297656819554</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815315</v>
+        <v>370.9203488815331</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>49.5623669728852</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>55.1022816118827</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.1885574966865</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>238.3316067710337</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>60.00482941364439</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2535,7 +2535,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>155.1313674190456</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>246.7800261198764</v>
@@ -2557,13 +2557,13 @@
         <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535247</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815322</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019344</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
         <v>387.3211661995114</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975966</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862705</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
         <v>224.9909450967471</v>
@@ -2715,22 +2715,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875628</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039812</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>99.09943416991413</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529992</v>
+        <v>155.1925641056984</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198765</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975945</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F31" t="n">
-        <v>59.6430987064213</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501623</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>132.7252007977331</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>102.9998778553974</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.61243891626</v>
+        <v>102.4673613588537</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415074</v>
+        <v>376.6200261415067</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535247</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815322</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019344</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397555</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297597</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275023</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862719</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V35" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037661</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875628</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041768</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>21.13525767253148</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.028908712551</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529992</v>
       </c>
       <c r="V37" t="n">
-        <v>208.9659652975191</v>
+        <v>241.6479458835354</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198765</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987851</v>
       </c>
     </row>
     <row r="38">
@@ -3568,7 +3568,7 @@
         <v>350.4237561298452</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263987</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950529</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>125.7544744592027</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>118.61243891626</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
         <v>207.654309906727</v>
@@ -3720,10 +3720,10 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>100.8383219502122</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
         <v>206.4614817925755</v>
@@ -3796,19 +3796,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>158.3449400448986</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,10 +3915,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>52.1474843276721</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,7 +3957,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>136.1769805884548</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678447</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798627</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078702</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282724</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258495</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.6410012660963</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>307.7994123985594</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>85.48824505609775</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>133.9282644538403</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>219.9844192126099</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.4898868230852</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779947</v>
       </c>
       <c r="X44" t="n">
-        <v>351.080144279057</v>
+        <v>396.6369638527372</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.927306321391</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301041</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139008</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>162.9848146305148</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367173</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>110.8181624621918</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.1713569526553</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098734</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462145</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>222.4883416251231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>611.0531456036218</v>
+        <v>1301.201887339101</v>
       </c>
       <c r="C2" t="n">
-        <v>604.968958957296</v>
+        <v>1295.117700692775</v>
       </c>
       <c r="D2" t="n">
-        <v>604.5454330907605</v>
+        <v>1294.69417482624</v>
       </c>
       <c r="E2" t="n">
-        <v>594.2456216480613</v>
+        <v>880.3539593431362</v>
       </c>
       <c r="F2" t="n">
-        <v>577.2556136421529</v>
+        <v>529.2464335103966</v>
       </c>
       <c r="G2" t="n">
-        <v>431.4266467755108</v>
+        <v>120.5181494032288</v>
       </c>
       <c r="H2" t="n">
         <v>120.5181494032288</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030196</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3518581880563</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>288.3518581880563</v>
+        <v>711.1608938517925</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5402578923326</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="M2" t="n">
-        <v>964.3492935560695</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="N2" t="n">
-        <v>964.3492935560695</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219806</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219806</v>
+        <v>1346.601683530239</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015098</v>
+        <v>1667.762690325531</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015098</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809199</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="T2" t="n">
-        <v>1350.831776756058</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="U2" t="n">
-        <v>1350.831776756058</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="V2" t="n">
-        <v>1000.994222092539</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="W2" t="n">
-        <v>617.2339212277072</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="X2" t="n">
-        <v>617.2339212277072</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="Y2" t="n">
-        <v>617.2339212277072</v>
+        <v>1307.382662963186</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.037348789341</v>
+        <v>640.3659743228873</v>
       </c>
       <c r="C3" t="n">
-        <v>470.0422775382866</v>
+        <v>579.0021573557821</v>
       </c>
       <c r="D3" t="n">
-        <v>353.145119757679</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="E3" t="n">
-        <v>232.652303750007</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
         <v>232.652303750007</v>
@@ -4403,58 +4403,58 @@
         <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006179</v>
+        <v>54.91497810006176</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030196</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16638672030196</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>456.9754223840388</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="L3" t="n">
-        <v>456.9754223840388</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="M3" t="n">
-        <v>483.2972806410114</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="N3" t="n">
-        <v>906.1063163047482</v>
+        <v>483.2972806410102</v>
       </c>
       <c r="O3" t="n">
-        <v>1328.915351968485</v>
+        <v>906.1063163047465</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.915351968485</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652468</v>
+        <v>1678.759816652466</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015098</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129407</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316415</v>
+        <v>1440.987462316413</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.636651454634</v>
+        <v>1243.636651454632</v>
       </c>
       <c r="V3" t="n">
-        <v>1243.636651454634</v>
+        <v>1029.925124447666</v>
       </c>
       <c r="W3" t="n">
-        <v>1030.403483190963</v>
+        <v>816.6919561839944</v>
       </c>
       <c r="X3" t="n">
-        <v>854.0775013298553</v>
+        <v>640.3659743228873</v>
       </c>
       <c r="Y3" t="n">
-        <v>744.3403814249276</v>
+        <v>640.3659743228873</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>583.0590809082253</v>
+        <v>690.2963448567647</v>
       </c>
       <c r="C4" t="n">
-        <v>583.0590809082253</v>
+        <v>519.2029724184812</v>
       </c>
       <c r="D4" t="n">
-        <v>583.0590809082253</v>
+        <v>359.7083277413912</v>
       </c>
       <c r="E4" t="n">
-        <v>422.1482657765447</v>
+        <v>198.7975126097107</v>
       </c>
       <c r="F4" t="n">
-        <v>300.1198878105192</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="G4" t="n">
-        <v>300.1198878105192</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159758</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030196</v>
+        <v>34.16638672030193</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551249</v>
+        <v>48.24893612551245</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477505</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
         <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683043</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1291.900796896462</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>1009.102649442586</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="V4" t="n">
-        <v>1009.102649442586</v>
+        <v>1341.075612002361</v>
       </c>
       <c r="W4" t="n">
-        <v>1009.102649442586</v>
+        <v>1341.075612002361</v>
       </c>
       <c r="X4" t="n">
-        <v>770.7587873022696</v>
+        <v>1102.731749862044</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.7587873022696</v>
+        <v>877.996051250809</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>570.6426643811657</v>
+        <v>671.4229190665928</v>
       </c>
       <c r="C5" t="n">
-        <v>564.5584777348398</v>
+        <v>261.2983283798629</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>260.8748025133276</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>250.5749910706283</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>233.5849830647199</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1361.520413921992</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>977.760113057161</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X5" t="n">
-        <v>977.760113057161</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y5" t="n">
-        <v>576.8234400052511</v>
+        <v>1081.644098731082</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634683</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>317.6057762023659</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>835.0193028338081</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>555.9496383426824</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>317.6057762023659</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>317.6057762023659</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.239803110925</v>
+        <v>1280.493434973059</v>
       </c>
       <c r="C8" t="n">
-        <v>789.115212424195</v>
+        <v>1274.409248326733</v>
       </c>
       <c r="D8" t="n">
-        <v>788.6916865576595</v>
+        <v>1273.985722460198</v>
       </c>
       <c r="E8" t="n">
-        <v>374.3514710745562</v>
+        <v>859.6455069770948</v>
       </c>
       <c r="F8" t="n">
-        <v>357.3614630686478</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4807,49 +4807,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1606.063976566058</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1205.42057873501</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.42057873501</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>2058.694762117472</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>704.4716728002624</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C10" t="n">
-        <v>704.4716728002624</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D10" t="n">
-        <v>704.4716728002624</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>543.5608576685818</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>378.929731779173</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6793407047165</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W10" t="n">
-        <v>929.2073714114977</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X10" t="n">
-        <v>929.2073714114977</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y10" t="n">
-        <v>704.4716728002624</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5071,22 +5071,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5581915209807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.0137430120645</v>
+        <v>630.1860124883461</v>
       </c>
       <c r="C13" t="n">
-        <v>430.7172814084659</v>
+        <v>488.8895508847475</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7172814084659</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6033771114703</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.736243533497</v>
+        <v>983.0275958242562</v>
       </c>
       <c r="W13" t="n">
-        <v>938.4634898770558</v>
+        <v>983.0275958242562</v>
       </c>
       <c r="X13" t="n">
-        <v>729.9165385714241</v>
+        <v>983.0275958242562</v>
       </c>
       <c r="Y13" t="n">
-        <v>729.9165385714241</v>
+        <v>788.0888080477057</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
@@ -5266,10 +5266,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5311,7 +5311,7 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.5427745949823</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C16" t="n">
-        <v>317.2463129913837</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="D16" t="n">
-        <v>317.2463129913837</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>317.2463129913837</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>317.2463129913837</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5463,25 +5463,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310051</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U16" t="n">
-        <v>1489.927527310051</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.838693084258</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W16" t="n">
-        <v>996.5659394278172</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X16" t="n">
-        <v>811.3843579308925</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.445570154342</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5554,13 +5554,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.9991721489658</v>
+        <v>284.6031562365297</v>
       </c>
       <c r="C19" t="n">
-        <v>832.7027105453672</v>
+        <v>143.3066946329311</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029619</v>
+        <v>143.3066946329311</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059662</v>
+        <v>143.3066946329311</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5700,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T19" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U19" t="n">
-        <v>1535.387706790508</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V19" t="n">
-        <v>1535.387706790508</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W19" t="n">
-        <v>1535.387706790508</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X19" t="n">
-        <v>1326.840755484876</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y19" t="n">
-        <v>1131.901967708325</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>809.8415093489452</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764623</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>491.8041838938519</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5077222902532</v>
+        <v>197.474563848892</v>
       </c>
       <c r="D22" t="n">
-        <v>350.5077222902532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>350.5077222902532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>350.5077222902532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504814</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U22" t="n">
-        <v>1193.712723081718</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V22" t="n">
-        <v>949.6238888559246</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W22" t="n">
-        <v>700.3511351994838</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X22" t="n">
-        <v>491.8041838938519</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y22" t="n">
-        <v>491.8041838938519</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -6019,13 +6019,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>371.9936395339932</v>
+        <v>426.2650023928782</v>
       </c>
       <c r="C25" t="n">
-        <v>230.6971779303946</v>
+        <v>284.9685407892795</v>
       </c>
       <c r="D25" t="n">
-        <v>230.6971779303946</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E25" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.752132272616</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="W25" t="n">
-        <v>775.4793786161755</v>
+        <v>987.65353703442</v>
       </c>
       <c r="X25" t="n">
-        <v>566.9324273105437</v>
+        <v>779.1065857287882</v>
       </c>
       <c r="Y25" t="n">
-        <v>371.9936395339932</v>
+        <v>584.1677979522377</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764622</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388649</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6256,22 +6256,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035666</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>887.4500370879769</v>
+        <v>222.941431533028</v>
       </c>
       <c r="C28" t="n">
-        <v>746.1535754843782</v>
+        <v>222.941431533028</v>
       </c>
       <c r="D28" t="n">
-        <v>616.4558416419729</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>485.3419373449772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>350.5077222902532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>213.0542420504814</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6384,7 +6384,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049078</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
         <v>320.2864794362204</v>
@@ -6405,31 +6405,31 @@
         <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.274212784069</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.274212784069</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.274212784069</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1756.1737742286</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1503.172537609409</v>
+        <v>1277.691554056804</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.172537609409</v>
+        <v>1033.602719831011</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.899783952968</v>
+        <v>784.32996617457</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.352832647337</v>
+        <v>575.7830148689382</v>
       </c>
       <c r="Y28" t="n">
-        <v>1045.352832647337</v>
+        <v>380.8442270923876</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764618</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035666</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176685</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180322</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>735.0499203580262</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>344.1681463474767</v>
       </c>
       <c r="C31" t="n">
-        <v>284.6031562365289</v>
+        <v>344.1681463474767</v>
       </c>
       <c r="D31" t="n">
-        <v>284.6031562365289</v>
+        <v>344.1681463474767</v>
       </c>
       <c r="E31" t="n">
-        <v>153.4892519395332</v>
+        <v>213.0542420504812</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504812</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504812</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1800.798405294155</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1666.732545902506</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1456.980717713893</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1203.979481094702</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>959.8906468689086</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>710.6178932124678</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>502.0709419068362</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>502.0709419068362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133289</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281244</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176681</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>592.7987223006619</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>585.6619072492665</v>
+        <v>283.2952179625751</v>
       </c>
       <c r="C34" t="n">
-        <v>585.6619072492665</v>
+        <v>283.2952179625751</v>
       </c>
       <c r="D34" t="n">
-        <v>585.6619072492665</v>
+        <v>283.2952179625751</v>
       </c>
       <c r="E34" t="n">
-        <v>454.5480029522707</v>
+        <v>283.2952179625751</v>
       </c>
       <c r="F34" t="n">
-        <v>350.5077222902532</v>
+        <v>283.2952179625751</v>
       </c>
       <c r="G34" t="n">
-        <v>213.0542420504814</v>
+        <v>283.2952179625751</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T34" t="n">
-        <v>1489.927527310051</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U34" t="n">
-        <v>1236.92629069086</v>
+        <v>1338.045340486351</v>
       </c>
       <c r="V34" t="n">
-        <v>992.8374564650669</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W34" t="n">
-        <v>743.5647028086261</v>
+        <v>844.6837526041168</v>
       </c>
       <c r="X34" t="n">
-        <v>743.5647028086261</v>
+        <v>636.136801298485</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.5647028086261</v>
+        <v>441.1980135219346</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133289</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281244</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208989</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.07501056057</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489425</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6967,22 +6967,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176681</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963093</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.9991721489654</v>
+        <v>390.7231194727148</v>
       </c>
       <c r="C37" t="n">
-        <v>832.7027105453667</v>
+        <v>249.426657869116</v>
       </c>
       <c r="D37" t="n">
-        <v>703.0049767029616</v>
+        <v>249.426657869116</v>
       </c>
       <c r="E37" t="n">
-        <v>571.8910724059659</v>
+        <v>249.426657869116</v>
       </c>
       <c r="F37" t="n">
-        <v>437.0568573512421</v>
+        <v>114.592442814392</v>
       </c>
       <c r="G37" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362203</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253553</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749232</v>
       </c>
       <c r="N37" t="n">
         <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113796</v>
       </c>
       <c r="P37" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672483</v>
       </c>
       <c r="Q37" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="S37" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498664</v>
       </c>
       <c r="T37" t="n">
-        <v>1800.798405294154</v>
+        <v>1489.92752731005</v>
       </c>
       <c r="U37" t="n">
-        <v>1800.798405294154</v>
+        <v>1236.926290690859</v>
       </c>
       <c r="V37" t="n">
-        <v>1589.721672670398</v>
+        <v>992.837456465066</v>
       </c>
       <c r="W37" t="n">
-        <v>1340.448919013957</v>
+        <v>743.564702808625</v>
       </c>
       <c r="X37" t="n">
-        <v>1131.901967708325</v>
+        <v>743.564702808625</v>
       </c>
       <c r="Y37" t="n">
-        <v>1131.901967708325</v>
+        <v>548.6259150320744</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
         <v>430.9101360764621</v>
@@ -7204,10 +7204,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
@@ -7216,10 +7216,10 @@
         <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.714647364874</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1863.671737910768</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>832.7027105453672</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="C40" t="n">
-        <v>832.7027105453672</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="D40" t="n">
-        <v>703.0049767029619</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="E40" t="n">
-        <v>571.8910724059662</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512422</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114704</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U40" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V40" t="n">
-        <v>1236.18844962755</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W40" t="n">
-        <v>1236.18844962755</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X40" t="n">
-        <v>1027.641498321918</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y40" t="n">
-        <v>832.7027105453672</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="41">
@@ -7444,16 +7444,16 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y41" t="n">
         <v>2959.412569640574</v>
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>532.5581915209807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
         <v>2110.173374178493</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>691.0787157447054</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="C43" t="n">
-        <v>691.0787157447054</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D43" t="n">
-        <v>691.0787157447054</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1569.968367717865</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1330.419628694567</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1047.621481240691</v>
       </c>
       <c r="V43" t="n">
-        <v>691.0787157447054</v>
+        <v>773.7357361802131</v>
       </c>
       <c r="W43" t="n">
-        <v>691.0787157447054</v>
+        <v>773.7357361802131</v>
       </c>
       <c r="X43" t="n">
-        <v>691.0787157447054</v>
+        <v>773.7357361802131</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.0787157447054</v>
+        <v>773.7357361802131</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2549.191389976086</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2139.066799289356</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1734.602869382416</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1320.262653899313</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>899.232241853</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>490.503957745832</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>179.5954603735498</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7684,16 +7684,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523534</v>
       </c>
       <c r="X44" t="n">
-        <v>2959.412569640574</v>
+        <v>3360.349242692486</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2959.412569640576</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>2002.69172805944</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.5306744632587</v>
+        <v>545.3142419139895</v>
       </c>
       <c r="C46" t="n">
-        <v>745.5306744632587</v>
+        <v>374.2208694757057</v>
       </c>
       <c r="D46" t="n">
-        <v>586.0360297861687</v>
+        <v>374.2208694757057</v>
       </c>
       <c r="E46" t="n">
-        <v>425.1252146544881</v>
+        <v>374.2208694757057</v>
       </c>
       <c r="F46" t="n">
-        <v>260.4940887650794</v>
+        <v>209.5897435862968</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862968</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862968</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958333</v>
+        <v>107.3262470958331</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180713</v>
+        <v>261.8785748180709</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981318</v>
+        <v>521.7756750981314</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386251</v>
+        <v>811.0397315386244</v>
       </c>
       <c r="N46" t="n">
         <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1351.43912425935</v>
+        <v>1351.439124259349</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508962</v>
+        <v>1557.114564508961</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.642594311473</v>
+        <v>1622.642594311471</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1622.642594311471</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1510.705056470874</v>
       </c>
       <c r="T46" t="n">
-        <v>1196.702087168085</v>
+        <v>1510.705056470874</v>
       </c>
       <c r="U46" t="n">
-        <v>970.266373074494</v>
+        <v>1510.705056470874</v>
       </c>
       <c r="V46" t="n">
-        <v>970.266373074494</v>
+        <v>1236.819311410395</v>
       </c>
       <c r="W46" t="n">
-        <v>970.266373074494</v>
+        <v>957.7496469192695</v>
       </c>
       <c r="X46" t="n">
-        <v>970.266373074494</v>
+        <v>957.7496469192695</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.5306744632587</v>
+        <v>733.0139483080341</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.2162236769911</v>
       </c>
       <c r="L2" t="n">
-        <v>351.2312563499927</v>
+        <v>522.5652320666189</v>
       </c>
       <c r="M2" t="n">
-        <v>520.37005846082</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295577</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>308.4289127906928</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.90561678839</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>84.15201935152109</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>480.2732273975246</v>
+        <v>312.1005008261491</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037746</v>
+        <v>484.8313130037741</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065778</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>531.0094776201754</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>232.5803491573233</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>531.0119939709983</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>332.1773130131622</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>501.3162977084759</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9421,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9482,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>551.1310269936541</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>204.5506456092455</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>243.9932777523689</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10211,10 +10211,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>560.7155587704844</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>665.1482007347663</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>333.1092871546772</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>501.3162977084759</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.9497991977444</v>
+        <v>45.20928738061318</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>25.21219900729524</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23.13171611062012</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>83.9235059312914</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>195.3689426411165</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>25.2121990072945</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.13961748196547</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>68.3959270903367</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>86.5165784644897</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103792</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501644</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>108.5548757368129</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>95.27866014730071</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835354</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.84277419775536</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037899</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>22.30370791481764</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>30.48599504877934</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>16.14507755740613</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039812</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.9436877648427</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037924</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501648</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>32.68198058601615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>206.4614817925756</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>30.56929314456332</v>
       </c>
       <c r="C40" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>140.8096239333232</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,7 +25794,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>132.3803661112167</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>134.9699070214185</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>96.14494677818857</v>
       </c>
       <c r="X44" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303192</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803639</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5778871637122</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>148.1113806425981</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>84.41999114135453</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>73.70968797669723</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330651</v>
       </c>
       <c r="U46" t="n">
-        <v>55.79880902668182</v>
+        <v>279.9701659793373</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189136</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623993.8663530728</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623993.8663530728</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623993.8663530728</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623993.8663530729</v>
+        <v>623993.8663530727</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623993.8663530728</v>
+        <v>623993.8663530729</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581011.0220813396</v>
+        <v>581011.0220813397</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>602664.8542200906</v>
+      </c>
+      <c r="C2" t="n">
         <v>602664.8542200907</v>
-      </c>
-      <c r="C2" t="n">
-        <v>602664.8542200906</v>
       </c>
       <c r="D2" t="n">
         <v>602664.8542200906</v>
       </c>
       <c r="E2" t="n">
-        <v>584042.9209415643</v>
+        <v>584042.920941564</v>
       </c>
       <c r="F2" t="n">
-        <v>584042.9209415637</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="G2" t="n">
-        <v>584042.9209415637</v>
+        <v>584042.920941564</v>
       </c>
       <c r="H2" t="n">
         <v>584042.9209415641</v>
       </c>
       <c r="I2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="J2" t="n">
         <v>584042.9209415641</v>
       </c>
-      <c r="J2" t="n">
-        <v>584042.9209415637</v>
-      </c>
       <c r="K2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="L2" t="n">
         <v>584042.9209415643</v>
       </c>
-      <c r="L2" t="n">
-        <v>584042.920941564</v>
-      </c>
       <c r="M2" t="n">
-        <v>584042.9209415639</v>
+        <v>584042.9209415636</v>
       </c>
       <c r="N2" t="n">
         <v>584042.920941564</v>
@@ -26355,7 +26355,7 @@
         <v>535850.0349399234</v>
       </c>
       <c r="P2" t="n">
-        <v>535850.0349399236</v>
+        <v>535850.0349399234</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108469</v>
+        <v>143124.2752108468</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668785</v>
+        <v>30686.46086668802</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.029469154</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110928</v>
+        <v>24445.77426110956</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240285.7433202983</v>
+        <v>240285.7433202984</v>
       </c>
       <c r="C4" t="n">
         <v>222716.4087914901</v>
@@ -26429,13 +26429,13 @@
         <v>133638.8779954489</v>
       </c>
       <c r="F4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="G4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="H4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.877995449</v>
       </c>
       <c r="I4" t="n">
         <v>133638.8779954489</v>
@@ -26444,22 +26444,22 @@
         <v>133638.8779954488</v>
       </c>
       <c r="K4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.877995449</v>
       </c>
       <c r="L4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.877995449</v>
       </c>
       <c r="M4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="N4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="O4" t="n">
         <v>103828.84857858</v>
       </c>
       <c r="P4" t="n">
-        <v>103828.84857858</v>
+        <v>103828.8485785798</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742949</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,16 +26478,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
         <v>73345.15677686482</v>
@@ -26496,10 +26496,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
         <v>73345.15677686482</v>
@@ -26511,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159660.781781516</v>
+        <v>159660.7817815159</v>
       </c>
       <c r="C6" t="n">
-        <v>283892.9194834151</v>
+        <v>283892.919483415</v>
       </c>
       <c r="D6" t="n">
         <v>314579.3803501029</v>
       </c>
       <c r="E6" t="n">
-        <v>161329.9698887368</v>
+        <v>161279.6403393353</v>
       </c>
       <c r="F6" t="n">
-        <v>377058.8861692501</v>
+        <v>377008.556619849</v>
       </c>
       <c r="G6" t="n">
-        <v>377058.88616925</v>
+        <v>377008.5566198488</v>
       </c>
       <c r="H6" t="n">
-        <v>377058.8861692505</v>
+        <v>377008.5566198489</v>
       </c>
       <c r="I6" t="n">
-        <v>377058.8861692504</v>
+        <v>377008.5566198489</v>
       </c>
       <c r="J6" t="n">
-        <v>241716.856700096</v>
+        <v>241666.5271506952</v>
       </c>
       <c r="K6" t="n">
-        <v>352613.1119081412</v>
+        <v>352562.7823587394</v>
       </c>
       <c r="L6" t="n">
-        <v>377058.8861692504</v>
+        <v>377008.556619849</v>
       </c>
       <c r="M6" t="n">
-        <v>216700.4356685674</v>
+        <v>216650.106119166</v>
       </c>
       <c r="N6" t="n">
-        <v>377058.8861692504</v>
+        <v>377008.5566198489</v>
       </c>
       <c r="O6" t="n">
-        <v>361155.9761164702</v>
+        <v>360975.3955238211</v>
       </c>
       <c r="P6" t="n">
-        <v>361155.9761164703</v>
+        <v>360975.3955238212</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
+        <v>29.498941726338</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29.49894172633806</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.49894172633806</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.49894172633799</v>
+      </c>
+      <c r="J2" t="n">
         <v>29.49894172633794</v>
       </c>
-      <c r="G2" t="n">
-        <v>29.49894172633794</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29.49894172633794</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.498941726338</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.4989417263379</v>
-      </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="N2" t="n">
         <v>29.49894172633794</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037746</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037746</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625098</v>
+        <v>94.98373636625149</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037746</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625098</v>
+        <v>94.98373636625149</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037746</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625098</v>
+        <v>94.98373636625149</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>69.22365735143711</v>
       </c>
       <c r="G2" t="n">
-        <v>260.2703240681204</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>71.90494174110958</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.16819133392987</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>42.17672044414934</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>50.88211298447004</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>214.7393028053294</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>235.2752207238904</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>91.28166254697607</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>11.75949205792767</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>256.4669796577291</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>95.07885355495176</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28067,16 +28067,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.4989417263379</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633811</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633787</v>
       </c>
     </row>
     <row r="38">
@@ -30288,7 +30288,7 @@
         <v>29.49894172633794</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633833</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y38" t="n">
         <v>29.49894172633794</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.513781165531047e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="L2" t="n">
-        <v>255.7458582871479</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="M2" t="n">
-        <v>427.0798340037746</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037746</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>214.7795495098087</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037746</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>26.58773561310367</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>427.0798340037746</v>
+        <v>258.9071074323991</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037746</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037741</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>474.8949538093263</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>276.3515302285468</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>443.7520139700585</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36141,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36202,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>493.5667432552367</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533843</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720328</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415506</v>
@@ -36764,7 +36764,7 @@
         <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1744794983078</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O28" t="n">
         <v>291.6813763995441</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978319</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>187.8787539415198</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533864</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.6888708197834</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>504.6010349596355</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>607.3967217347663</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053384</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.6124040720328</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227957</v>
       </c>
       <c r="N37" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983078</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978315</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>278.8496521518734</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>443.7520139700585</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38034,7 +38034,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38098,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900035</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456948</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>262.5223235152125</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>292.1859155964577</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>283.6755377719698</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>262.182434673206</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>207.7529699491032</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>66.1899290934451</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
